--- a/Behaviour/BCIO behaviour.xlsx
+++ b/Behaviour/BCIO behaviour.xlsx
@@ -1,26 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Behaviour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Behaviour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F502567F-B5E2-45BD-AACE-C43EDE180453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{561D458B-E2C8-704A-924F-36362FA239EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14240" xr2:uid="{5FB9FF05-6AC9-B44B-92C1-3A4D3945B9DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AE219065-7982-4FDF-92EE-865BFCCFCC94}</author>
+  </authors>
+  <commentList>
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{602B101A-6DF6-6048-896F-0B631898FF20}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    discordance between subject (someone) and subject pronoun (they)? Also, 'else' not necessary? same below. I'd leave it as: Behaviour that entails intentionally targeting someone who is weaker or smaller with behaviour that is meant to alarm, annoy, torment or terrorize</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="221">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +69,6 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Informal definition</t>
-  </si>
-  <si>
     <t>Logical definition</t>
   </si>
   <si>
@@ -46,7 +81,7 @@
     <t>BFO entity</t>
   </si>
   <si>
-    <t>AO sub-ontology</t>
+    <t>BCIO subontology</t>
   </si>
   <si>
     <t>REL 'has role'</t>
@@ -79,6 +114,9 @@
     <t>Examples of usage</t>
   </si>
   <si>
+    <t>E-CigO</t>
+  </si>
+  <si>
     <t>Fuzzy set</t>
   </si>
   <si>
@@ -95,15 +133,616 @@
   </si>
   <si>
     <t>Reviewer query</t>
+  </si>
+  <si>
+    <t>Human function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An animal function that inheres in a human. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal function </t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesture behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A communication behaviour that involves the motion of the limbs or body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating, maintaining, adapting or destroying objects or environments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment management </t>
+  </si>
+  <si>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventing harm, pain or distress to oneself, another person or objects and environments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object management behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of creating, maintaining, adapting or destroying objects or environments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment management behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection behaviour </t>
+  </si>
+  <si>
+    <t>Behaviour with the purpose of preventing harm, pain or distress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of changing the physical or social environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of improving mental capability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life enhancement behaviour </t>
+  </si>
+  <si>
+    <t>Behaviour with the purpose of enhancing physical or mental wellbeing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life maintenance behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of sustaining or creating life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social integration behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of meeting the social needs of oneself, other people or one's social group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information acquisition behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of obtaining a more comprehensive or accurate mental representation of the world </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goal-oriented behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour leading directly to the death of another person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-harm </t>
+  </si>
+  <si>
+    <t>Behaviour that is intended to cause harm to oneself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suicide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour by a person leading intentionally to the death of that person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving the physical or social environment </t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving mental capability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life enhancement </t>
+  </si>
+  <si>
+    <t>Enhancing physical or mental wellbeing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life maintenance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustaining or creating life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social integration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting the social needs of oneself, other people or one's social group </t>
+  </si>
+  <si>
+    <t>Individual human behaviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+  </si>
+  <si>
+    <t>Individual human activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressive behaviour   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviours that are used to represent cognitions or emotions. 
+</t>
+  </si>
+  <si>
+    <t>The term “expressive behavior” refers to those aspects of behavior which manifest motivational states. “Motivational state” is used here to cover emotional attitudes and moods, cognitive attitudes (attention, concentration), activation states (arousal, fatigue), and more-or-less permanent attitudes that are personality attributes.' From encyclopedia.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that fulfils a human function.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that is defined according to the outcome of the behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grooming behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that is used to attend to personal hygiene, comfort or appearance
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dictionary.cambridge.org/dictionary/english/grooming
+the things that you do to make your appearance clean and neat, for example brushing your hair
+https://www.merriam-webster.com/dictionary/grooming
+to make neat or attractive
+https://www.collinsdictionary.com/dictionary/english/grooming
+Grooming refers to the things that people do to keep themselves clean and make their face, hair, and skin look nice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-personal behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour defined in terms of transactions between two or more people  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locomotive behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour in which muscles are used by person to move that person relative to the environment or part of it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object-involving behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that uses or manipulates an object. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical impact behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour used to make physical contact 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posture behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour in which muscles are used by a person to adopt a body configuration in relation to the immediate environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexual behaviour  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Behaviour that involves sexual arousal 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socially-evaluated behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that has a positive or a negative evaluation for a population. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullying behaviour </t>
+  </si>
+  <si>
+    <t>Behaviour that entails intentionally targeting someone else who is weaker or smaller with behaviour that is meant to alarm, annoy, torment or terrorize them</t>
+  </si>
+  <si>
+    <t>From Britannica https://www.britannica.com/topic/bullying. Intentional harm-doing or harassment that is directed toward vulnerable targets and typically repeated. Bullying encompasses a wide range of malicious aggressive behaviours, including physical violence, verbal mockery, threats, ostracism, and rumours spread either orally or by other means of communication, such as the Internet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Care-giving behaviour </t>
+  </si>
+  <si>
+    <t>Behaviour that involves providing care to others who are not able to care adequately for themselves</t>
+  </si>
+  <si>
+    <t>From medical dictionary https://medical-dictionary.thefreedictionary.com/ caring behaviors: actions characteristic of concern for the well-being of a patient, such as sensitivity, comforting, attentive listening, honesty, and nonjudgmental acceptance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour that involves the intentional transmission of information </t>
+  </si>
+  <si>
+    <t>https://www.merriam-webster.com/dictionary/communicate
+to convey knowledge of or information about : make known</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economic behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that involves the production, acquisition, distribution or exchange of money, goods or services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fighting behaviour </t>
+  </si>
+  <si>
+    <t>Take part in a violent struggle involving the exchange of physical blows or the use of weapons</t>
+  </si>
+  <si>
+    <t>see Lexico.com defintion - take part in a violent struggle involving the exchange of physical blows or the use of weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harassment behaviour </t>
+  </si>
+  <si>
+    <t>Behaviour that entails intentionally targeting someone else with behaviour that is meant to alarm, annoy, torment or terrorize them</t>
+  </si>
+  <si>
+    <t>Harressment is unwanted behaviour which you find offensice or which makes you feel intimideated or humilated. It can happen on it's own or alongside other discrimination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving ability to perform physical or psychological activities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill development behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of improving ability to perform physical activities or mental processes </t>
+  </si>
+  <si>
+    <t>Aesthetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating pleasurable sensory experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mind-body activity </t>
+  </si>
+  <si>
+    <t>Behaviour embedded in an integrative philosophy concerned with holistic well-being (beyond the emphasis on health-related physical fitness)</t>
+  </si>
+  <si>
+    <t>Physical fitness behaviour</t>
+  </si>
+  <si>
+    <t>Behaviour that requires physical effort and that is carried out to sustain or improve physical health and wellness.</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiencing pleasure or satisfaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aesthetic creation behaviour  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the primary aim of creating beauty or art.  </t>
+  </si>
+  <si>
+    <t>Mind-body behaviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recreation behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the primary aim of experiencing pleasure or satisfaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excretion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO_0007588: The elimination by an organism of the waste products that arise as a result of metabolic activity. These products include water, carbon dioxide (CO2), and nitrogenous compounds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutritional function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providing appropriate amounts and types of nutrients and hydration to body tissues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproduction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO_0000003: The production of new individuals that contain some portion of genetic material inherited from one or more parent organisms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO_0007585: The process of gaseous exchange between an organism and its environment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reducing physical or mental activity in order to provide recuperation or restitution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changing physical location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excretion behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of eliminating excess or harmful chemicals produced by bodily functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of providing appropriate amounts and types of nutrients and hydration to body tissues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproductive behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of producing offspring based on combining DNA of two or more people </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiration behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of providing an appropriate level of oxygenation to body tissues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of changing physical location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dysfunctional behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that involves dysfunction of mental functions underlying it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maladaptive behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumption behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that involves ingesting material into the body </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing behaviour </t>
+  </si>
+  <si>
+    <t>Behaviour that involves making a product from raw materials or parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading behaviour </t>
+  </si>
+  <si>
+    <t>Behaviour that involves deriving meaning from written or printed symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporting behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that involves changing the location of an object </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that is judged to promote physical or mental wellbeing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro-social behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that a population judges to accord with current norms of social conduct </t>
+  </si>
+  <si>
+    <t>Lying down</t>
+  </si>
+  <si>
+    <t>Lying refers to being in a horizontal position on a supporting surface</t>
+  </si>
+  <si>
+    <t>Reclining</t>
+  </si>
+  <si>
+    <t>A position between sitting and lying</t>
+  </si>
+  <si>
+    <t>Sitting</t>
+  </si>
+  <si>
+    <t>A position in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright</t>
+  </si>
+  <si>
+    <t>Standing</t>
+  </si>
+  <si>
+    <t>A position in which one has or is maintaining an upright position while supported by one's feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addictive behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that is the object of addiction in a significant proportion of cases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antisocial behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that a population judges to contravene current norms of social conduct </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoidance behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour in which defensive action is taken to keep away from adverse stimuli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB23.2 Avoidance behaviour [ICD 11]
+The act of keeping away from circumstances, situations, or stimuli that cause anxiety or other negative emotions in the individual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compulsive behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that is enacted persistently and repetitively without it leading to reward or pleasure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB23.4 Compulsions [ICD-11]
+Repetitive behaviours or rituals (e.g., washing, checking) or mental acts (e.g., repeating words silently) that the individual feels driven to perform in response to an obsession, according to rigid rules, or to achieve a sense of ‘completeness’. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harmful behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that has a risk of causing more harm than good </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulsive behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that is enacted without giving an appropriate amount of thought to the consequences </t>
+  </si>
+  <si>
+    <t>A behaviour that does not adjust adequately or appropriately to the environment or situation</t>
+  </si>
+  <si>
+    <t>not adjusting adequately or appropriately to the environment or situation. Oxford Languages; It is a series of behaviors by someone who reacts and behaves inappropriately to internal or external stimuli (better help: https://www.betterhelp.com/advice/behavior/what-is-maladaptive-behavior-definition-and-symptoms/); Maladaptive means not providing adequate or appropriate adjustment to the environment or situation. Maladaptive behaviors are those which some people use to avoid directly confronting the discomfort of new situations or environments (Lionrock: https://www.lionrockrecovery.com/drug-and-alcohol-addiction-resources/information/addiction-related-conditions/maladaptive-behavior-and-addiction); Maladaptive behaviors are those that stop you from adapting to new or difficult circumstances. Examples are: Avoidance, Withdrawal, Passive-aggressiveness, Self-harm, Anger, Substance use, Maladaptive daydreaming (healthline: https://www.healthline.com/health/maladaptive-behavior#maladaptive-traits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paranoid behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that arises from paranoid delusion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affiliation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attaining or increasing a sense of being part of a social group or dyad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attaining or increasing social power or status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting the physical or psychological needs of another sentient being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ownership </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having the socially acknowledged right to use and control something </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social organisation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoting social cohesion and functioning of social structures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affiliation behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of attaining or increasing a sense of being part of a social group or dyad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominance behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of attaining or increasing social power or status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurture behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of meeting the physical or psychological needs of another sentient being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ownership behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of having the socially acknowledged right to use and control something </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social organisation behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour with the purpose of promoting social cohesion and functioning of social structures </t>
+  </si>
+  <si>
+    <t>Political behaviour</t>
+  </si>
+  <si>
+    <t>(the policy or action of using vigorous campaigning to bring about political or social change - oxford languages)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that is positively valued </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour that is negatively valued by a population </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A function that inheres in an animal and is realised in processes that enable the animal to survive and thrive. </t>
+  </si>
+  <si>
+    <t>NCIT:C48222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,16 +753,133 @@
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -131,19 +887,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -166,44 +1105,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -230,14 +1169,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -264,6 +1221,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -275,194 +1250,156 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DEC56F-5462-AC49-A080-91A8C467020C}">
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:Y95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="15" max="15" width="47.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="54.5703125" customWidth="1"/>
-    <col min="22" max="22" width="16" customWidth="1"/>
-    <col min="23" max="23" width="29.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +1476,1614 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:25" ht="85">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="128">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="136">
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" ht="153">
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="187">
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="102">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" ht="136">
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" ht="102">
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" ht="119">
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" ht="102">
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" ht="187">
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" ht="192">
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" ht="96">
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" ht="80">
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:25" ht="112">
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" ht="85">
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" ht="51">
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" ht="68">
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" ht="51">
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" ht="136">
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" ht="187">
+      <c r="B22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" ht="112">
+      <c r="B23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="68">
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" ht="136">
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" ht="409.6">
+      <c r="B26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="112">
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" ht="204">
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" ht="64">
+      <c r="B29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" ht="112">
+      <c r="B30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" ht="238">
+      <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" ht="96">
+      <c r="B32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" ht="112">
+      <c r="B33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" ht="409.6">
+      <c r="B34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="409.6">
+      <c r="B35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="221">
+      <c r="B36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="160">
+      <c r="B37" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="2:8" ht="221">
+      <c r="B38" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="224">
+      <c r="B39" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="102">
+      <c r="B40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" ht="170">
+      <c r="B41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="2:8" ht="68">
+      <c r="B42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" ht="255">
+      <c r="B43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" ht="204">
+      <c r="B44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" ht="176">
+      <c r="B45" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="2:8" ht="68">
+      <c r="B46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:8" ht="119">
+      <c r="B47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="2:8" ht="224">
+      <c r="B48" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+    </row>
+    <row r="49" spans="2:8" ht="112">
+      <c r="B49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="2:8" ht="388">
+      <c r="B50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8" ht="153">
+      <c r="B51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8" ht="272">
+      <c r="B52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="2:8" ht="170">
+      <c r="B53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="2:8" ht="153">
+      <c r="B54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8" ht="51">
+      <c r="B55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8" ht="170">
+      <c r="B56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="2:8" ht="204">
+      <c r="B57" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="2:8" ht="170">
+      <c r="B58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="2:8" ht="170">
+      <c r="B59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="2:8" ht="153">
+      <c r="B60" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="2:8" ht="102">
+      <c r="B61" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="2:8" ht="96">
+      <c r="B62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="2:8" ht="96">
+      <c r="B63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="2:8" ht="112">
+      <c r="B64" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="1:25" ht="112">
+      <c r="B65" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" s="35"/>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="66" spans="1:25" ht="80">
+      <c r="B66" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="1:25" ht="112">
+      <c r="B67" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:25" ht="144">
+      <c r="A68" s="36"/>
+      <c r="B68" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
+    </row>
+    <row r="69" spans="1:25" ht="96">
+      <c r="A69" s="36"/>
+      <c r="B69" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="31"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+    </row>
+    <row r="70" spans="1:25" ht="64">
+      <c r="B70" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="31"/>
+      <c r="H70" s="33"/>
+    </row>
+    <row r="71" spans="1:25" ht="34">
+      <c r="A71" s="36"/>
+      <c r="B71" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="31"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
+    </row>
+    <row r="72" spans="1:25" ht="144">
+      <c r="A72" s="36"/>
+      <c r="B72" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="31"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+    </row>
+    <row r="73" spans="1:25" ht="112">
+      <c r="A73" s="36"/>
+      <c r="B73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="36"/>
+    </row>
+    <row r="74" spans="1:25" ht="144">
+      <c r="A74" s="36"/>
+      <c r="B74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="39"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
+    </row>
+    <row r="75" spans="1:25" ht="306">
+      <c r="B75" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="409.6">
+      <c r="B76" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="40"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="96">
+      <c r="B77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="40"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:25" ht="176">
+      <c r="B78" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:25" ht="409.6">
+      <c r="A79" s="36"/>
+      <c r="B79" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="20"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" s="42"/>
+      <c r="H79" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="36"/>
+    </row>
+    <row r="80" spans="1:25" ht="80">
+      <c r="B80" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:25" ht="119">
+      <c r="B81" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="44"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" ht="85">
+      <c r="B82" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" ht="136">
+      <c r="B83" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:25" ht="119">
+      <c r="B84" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:25" ht="119">
+      <c r="B85" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:25" ht="170">
+      <c r="B86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:25" ht="136">
+      <c r="B87" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:25" ht="187">
+      <c r="B88" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:25" ht="170">
+      <c r="B89" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:25" ht="170">
+      <c r="B90" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:25" ht="192">
+      <c r="B91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:25" ht="64">
+      <c r="A92" s="36"/>
+      <c r="B92" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
+    </row>
+    <row r="93" spans="1:25" ht="80">
+      <c r="A93" s="36"/>
+      <c r="B93" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="45"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="36"/>
+      <c r="V93" s="36"/>
+      <c r="W93" s="36"/>
+      <c r="X93" s="36"/>
+      <c r="Y93" s="36"/>
+    </row>
+    <row r="94" spans="1:25" ht="187">
+      <c r="A94" s="36"/>
+      <c r="B94" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="36"/>
+      <c r="W94" s="36"/>
+      <c r="X94" s="36"/>
+      <c r="Y94" s="36"/>
+    </row>
+    <row r="95" spans="1:25" ht="32">
+      <c r="B95" s="46"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H95" s="49"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>